--- a/biology/Botanique/Guapira/Guapira.xlsx
+++ b/biology/Botanique/Guapira/Guapira.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Guapira est un genre de plantes de la famille des Nyctaginaceae. Ce sont des arbustes ou arbrisseaux du Néotropique[2]. L'espèce type est Guapira guianensis Aubl..
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Guapira est un genre de plantes de la famille des Nyctaginaceae. Ce sont des arbustes ou arbrisseaux du Néotropique. L'espèce type est Guapira guianensis Aubl..
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante[3] : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet propose la diagnose suivante : 
 « GUAPIRA. (Tabula 119.) 
 CAL. Perianthium tetraphyllum &amp; pentaphyllum, foliolis brevibus, ſubrotundis, acutis. 
 COR. monopetala, tubuloſa, limbo patente, quadri vel quinque-dentato. 
@@ -549,14 +563,16 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (7 août 2018)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (7 août 2018) :
 Guapira discolor (Spreng.) Little
 Guapira fragrans (Dum.-Cours.) Little
 Guapira globosa (Small) Little
 Guapira obtusata (Jacq.) Little
-Selon Catalogue of Life                                   (7 août 2018)[5] :
+Selon Catalogue of Life                                   (7 août 2018) :
 Guapira acuminata Lundell
 Guapira amacurensis J.A. Steyermark
 Guapira areolata (Heimerl) Lundell
@@ -625,13 +641,13 @@
 Guapira uberrima (Standl.) Lundell
 Guapira venosa (Choisy) Lundell
 Guapira witsbergeri C.L. Lundell
-Selon GRIN            (7 août 2018)[6] :
+Selon GRIN            (7 août 2018) :
 Guapira discolor (Spreng.) Little
-Selon ITIS      (7 août 2018)[7] :
+Selon ITIS      (7 août 2018) :
 Guapira discolor (Spreng.) Little
 Guapira fragrans (Dum. Cours.) Little
 Guapira obtusata (Jacq.) Little
-Selon NCBI  (7 août 2018)[8] :
+Selon NCBI  (7 août 2018) :
 Guapira discolor (Spreng.) Little
 Guapira eggersiana (Heimerl) Lundell
 Guapira fragrans (Dum.Cours.) Little
@@ -646,7 +662,7 @@
 Guapira riedeliana (Fisch.) Lundell
 Guapira standleyana Woodson
 Guapira venosa (Choisy) Lundell, 1968
-Selon The Plant List            (7 août 2018)[9] :
+Selon The Plant List            (7 août 2018) :
 Guapira acuminata Lundell
 Guapira amacurensis Steyerm.
 Guapira asperula (Standl.) Lundell
@@ -716,7 +732,7 @@
 Guapira uleana (Heimerl) Lundell
 Guapira venosa (Choisy) Lundell
 Guapira witsbergeri Lundell
-Selon Tropicos                                           (7 août 2018)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (7 août 2018) (Attention liste brute contenant possiblement des synonymes) :
 Guapira acuminata Lundell
 Guapira amacurensis Steyerm.
 Guapira areolata (Heimerl) Lundell
@@ -835,9 +851,11 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>(fr) et (la) Fusée-Aublet, 1775 : Histoire des Plantes de la Guiane Françoise[10]. vol. 1, p. 1-621[1] (texte intégral).</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(fr) et (la) Fusée-Aublet, 1775 : Histoire des Plantes de la Guiane Françoise. vol. 1, p. 1-621 (texte intégral).</t>
         </is>
       </c>
     </row>
